--- a/Designer/Export/Output/Rule/EnumConfig.xlsx
+++ b/Designer/Export/Output/Rule/EnumConfig.xlsx
@@ -125,7 +125,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="0a2898d5-e277-422d-b987-b4cc4aa99fef" xfId="1"/>
+    <cellStyle name="c767069d-d6e4-4eaf-a2de-0af4998697d4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
